--- a/src/test/resources/testData/Suite.xlsx
+++ b/src/test/resources/testData/Suite.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\IdeaProjects\Project02DataDrivenFrameworkExtended\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\IdeaProjects\Project02DataDrivenFramework2\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2937E01C-5A30-4471-B118-3D9752825418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32D5F71-9DD9-42E0-9977-2A5E2ED3C659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{52485E83-8577-4575-8FE2-B127966E8368}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>RunMode</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>BankManagerSuite</t>
-  </si>
-  <si>
-    <t>CustomerSuite</t>
   </si>
   <si>
     <t>Y</t>
@@ -403,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF94DA7-0046-4806-A48B-036475F91094}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -427,15 +424,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/Suite.xlsx
+++ b/src/test/resources/testData/Suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\IdeaProjects\Project02DataDrivenFramework2\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32D5F71-9DD9-42E0-9977-2A5E2ED3C659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0EBEE2-CB89-46F2-B375-223BD695FFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{52485E83-8577-4575-8FE2-B127966E8368}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>RunMode</t>
   </si>
@@ -47,7 +47,13 @@
     <t>BankManagerSuite</t>
   </si>
   <si>
+    <t>CustomerSuite</t>
+  </si>
+  <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -400,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF94DA7-0046-4806-A48B-036475F91094}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -424,7 +430,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
